--- a/SPOT.xlsx
+++ b/SPOT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF44B00D-F09C-4E73-A757-4DB98D6804EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB4D6F4-5795-401A-BA44-CA34ADAD0DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61480" yWindow="4320" windowWidth="14870" windowHeight="15510" activeTab="1" xr2:uid="{D758D3B9-60DF-481F-837C-ABA936D35B03}"/>
+    <workbookView xWindow="41960" yWindow="6150" windowWidth="22310" windowHeight="13390" activeTab="1" xr2:uid="{D758D3B9-60DF-481F-837C-ABA936D35B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -691,6 +691,10 @@
       <c r="L4" s="1">
         <v>675</v>
       </c>
+      <c r="M4" s="1">
+        <f>+L3/L4</f>
+        <v>0.3896296296296296</v>
+      </c>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -948,43 +952,43 @@
         <v>19</v>
       </c>
       <c r="C14" s="3">
-        <f>+C13+C12+C11</f>
+        <f t="shared" ref="C14:L14" si="4">+C13+C12+C11</f>
         <v>461</v>
       </c>
       <c r="D14" s="3">
-        <f>+D13+D12+D11</f>
+        <f t="shared" si="4"/>
         <v>750</v>
       </c>
       <c r="E14" s="3">
-        <f>+E13+E12+E11</f>
+        <f t="shared" si="4"/>
         <v>1227</v>
       </c>
       <c r="F14" s="3">
-        <f>+F13+F12+F11</f>
+        <f t="shared" si="4"/>
         <v>1396</v>
       </c>
       <c r="G14" s="3">
-        <f>+G13+G12+G11</f>
+        <f t="shared" si="4"/>
         <v>1795</v>
       </c>
       <c r="H14" s="3">
-        <f>+H13+H12+H11</f>
+        <f t="shared" si="4"/>
         <v>2308</v>
       </c>
       <c r="I14" s="3">
-        <f>+I13+I12+I11</f>
+        <f t="shared" si="4"/>
         <v>2497</v>
       </c>
       <c r="J14" s="3">
-        <f>+J13+J12+J11</f>
+        <f t="shared" si="4"/>
         <v>3585</v>
       </c>
       <c r="K14" s="3">
-        <f>+K13+K12+K11</f>
+        <f t="shared" si="4"/>
         <v>3843</v>
       </c>
       <c r="L14" s="3">
-        <f>+L13+L12+L11</f>
+        <f t="shared" si="4"/>
         <v>3359</v>
       </c>
     </row>
@@ -993,43 +997,43 @@
         <v>20</v>
       </c>
       <c r="C15" s="3">
-        <f>+C10-C14</f>
+        <f t="shared" ref="C15:L15" si="5">+C10-C14</f>
         <v>-235</v>
       </c>
       <c r="D15" s="3">
-        <f>+D10-D14</f>
+        <f t="shared" si="5"/>
         <v>-349</v>
       </c>
       <c r="E15" s="3">
-        <f>+E10-E14</f>
+        <f t="shared" si="5"/>
         <v>-378</v>
       </c>
       <c r="F15" s="3">
-        <f>+F10-F14</f>
+        <f t="shared" si="5"/>
         <v>-43</v>
       </c>
       <c r="G15" s="3">
-        <f>+G10-G14</f>
+        <f t="shared" si="5"/>
         <v>-73</v>
       </c>
       <c r="H15" s="3">
-        <f>+H10-H14</f>
+        <f t="shared" si="5"/>
         <v>-293</v>
       </c>
       <c r="I15" s="3">
-        <f>+I10-I14</f>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="J15" s="3">
-        <f>+J10-J14</f>
+        <f t="shared" si="5"/>
         <v>-659</v>
       </c>
       <c r="K15" s="3">
-        <f>+K10-K14</f>
+        <f t="shared" si="5"/>
         <v>-446</v>
       </c>
       <c r="L15" s="3">
-        <f>+L10-L14</f>
+        <f t="shared" si="5"/>
         <v>1365</v>
       </c>
     </row>
@@ -1073,43 +1077,43 @@
         <v>23</v>
       </c>
       <c r="C17" s="3">
-        <f>+C15+C16</f>
+        <f t="shared" ref="C17:L17" si="6">+C15+C16</f>
         <v>-225</v>
       </c>
       <c r="D17" s="3">
-        <f>+D15+D16</f>
+        <f t="shared" si="6"/>
         <v>-407</v>
       </c>
       <c r="E17" s="3">
-        <f>+E15+E16</f>
+        <f t="shared" si="6"/>
         <v>-794</v>
       </c>
       <c r="F17" s="3">
-        <f>+F15+F16</f>
+        <f t="shared" si="6"/>
         <v>-173</v>
       </c>
       <c r="G17" s="3">
-        <f>+G15+G16</f>
+        <f t="shared" si="6"/>
         <v>-131</v>
       </c>
       <c r="H17" s="3">
-        <f>+H15+H16</f>
+        <f t="shared" si="6"/>
         <v>-709</v>
       </c>
       <c r="I17" s="3">
-        <f>+I15+I16</f>
+        <f t="shared" si="6"/>
         <v>249</v>
       </c>
       <c r="J17" s="3">
-        <f>+J15+J16</f>
+        <f t="shared" si="6"/>
         <v>-370</v>
       </c>
       <c r="K17" s="3">
-        <f>+K15+K16</f>
+        <f t="shared" si="6"/>
         <v>-505</v>
       </c>
       <c r="L17" s="3">
-        <f>+L15+L16</f>
+        <f t="shared" si="6"/>
         <v>1341</v>
       </c>
     </row>
@@ -1153,43 +1157,43 @@
         <v>25</v>
       </c>
       <c r="C19" s="3">
-        <f>+C17-C18</f>
+        <f t="shared" ref="C19:L19" si="7">+C17-C18</f>
         <v>-225</v>
       </c>
       <c r="D19" s="3">
-        <f>+D17-D18</f>
+        <f t="shared" si="7"/>
         <v>-407</v>
       </c>
       <c r="E19" s="3">
-        <f>+E17-E18</f>
+        <f t="shared" si="7"/>
         <v>-794</v>
       </c>
       <c r="F19" s="3">
-        <f>+F17-F18</f>
+        <f t="shared" si="7"/>
         <v>-173</v>
       </c>
       <c r="G19" s="3">
-        <f>+G17-G18</f>
+        <f t="shared" si="7"/>
         <v>-131</v>
       </c>
       <c r="H19" s="3">
-        <f>+H17-H18</f>
+        <f t="shared" si="7"/>
         <v>-709</v>
       </c>
       <c r="I19" s="3">
-        <f>+I17-I18</f>
+        <f t="shared" si="7"/>
         <v>249</v>
       </c>
       <c r="J19" s="3">
-        <f>+J17-J18</f>
+        <f t="shared" si="7"/>
         <v>-430</v>
       </c>
       <c r="K19" s="3">
-        <f>+K17-K18</f>
+        <f t="shared" si="7"/>
         <v>-532</v>
       </c>
       <c r="L19" s="3">
-        <f>+L17-L18</f>
+        <f t="shared" si="7"/>
         <v>1138</v>
       </c>
     </row>
@@ -1198,43 +1202,43 @@
         <v>26</v>
       </c>
       <c r="C20" s="2">
-        <f>+C19/C21</f>
+        <f t="shared" ref="C20:L20" si="8">+C19/C21</f>
         <v>-1.585103130332111</v>
       </c>
       <c r="D20" s="2">
-        <f>+D19/D21</f>
+        <f t="shared" si="8"/>
         <v>-2.2491086304492871</v>
       </c>
       <c r="E20" s="2">
-        <f>+E19/E21</f>
+        <f t="shared" si="8"/>
         <v>-4.2327860229055458</v>
       </c>
       <c r="F20" s="2">
-        <f>+F19/F21</f>
+        <f t="shared" si="8"/>
         <v>-0.95469191120778063</v>
       </c>
       <c r="G20" s="2">
-        <f>+G19/G21</f>
+        <f t="shared" si="8"/>
         <v>-0.72391457147139215</v>
       </c>
       <c r="H20" s="2">
-        <f>+H19/H21</f>
+        <f t="shared" si="8"/>
         <v>-3.7796540179345492</v>
       </c>
       <c r="I20" s="2">
-        <f>+I19/I21</f>
+        <f t="shared" si="8"/>
         <v>1.2838823778120374</v>
       </c>
       <c r="J20" s="2">
-        <f>+J19/J21</f>
+        <f t="shared" si="8"/>
         <v>-2.1955986090770478</v>
       </c>
       <c r="K20" s="2">
-        <f>+K19/K21</f>
+        <f t="shared" si="8"/>
         <v>-2.7319555567934941</v>
       </c>
       <c r="L20" s="2">
-        <f>+L19/L21</f>
+        <f t="shared" si="8"/>
         <v>5.4978403367163429</v>
       </c>
     </row>
@@ -1292,19 +1296,19 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8">
-        <f t="shared" ref="D24:H24" si="4">+D8/C8-1</f>
+        <f t="shared" ref="D24:G24" si="9">+D8/C8-1</f>
         <v>0.5216494845360824</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.38550135501355021</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.28581907090464553</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.28617607910249099</v>
       </c>
       <c r="H24" s="8">
@@ -1333,43 +1337,43 @@
         <v>21</v>
       </c>
       <c r="C25" s="6">
-        <f>+C10/C8</f>
+        <f t="shared" ref="C25:L25" si="10">+C10/C8</f>
         <v>0.11649484536082474</v>
       </c>
       <c r="D25" s="6">
-        <f>+D10/D8</f>
+        <f t="shared" si="10"/>
         <v>0.13584010840108401</v>
       </c>
       <c r="E25" s="6">
-        <f>+E10/E8</f>
+        <f t="shared" si="10"/>
         <v>0.20757946210268949</v>
       </c>
       <c r="F25" s="6">
-        <f>+F10/F8</f>
+        <f t="shared" si="10"/>
         <v>0.25727324586423272</v>
       </c>
       <c r="G25" s="6">
-        <f>+G10/G8</f>
+        <f t="shared" si="10"/>
         <v>0.25458308693081017</v>
       </c>
       <c r="H25" s="6">
-        <f>+H10/H8</f>
+        <f t="shared" si="10"/>
         <v>0.25571065989847713</v>
       </c>
       <c r="I25" s="6">
-        <f>+I10/I8</f>
+        <f t="shared" si="10"/>
         <v>0.26799751758378154</v>
       </c>
       <c r="J25" s="6">
-        <f>+J10/J8</f>
+        <f t="shared" si="10"/>
         <v>0.2495096785196555</v>
       </c>
       <c r="K25" s="6">
-        <f>+K10/K8</f>
+        <f t="shared" si="10"/>
         <v>0.25643541934022795</v>
       </c>
       <c r="L25" s="6">
-        <f>+L10/L8</f>
+        <f t="shared" si="10"/>
         <v>0.30141006827027372</v>
       </c>
     </row>
